--- a/results/mp/logistic/corona/confidence/210/masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,67 +40,79 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>die</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>died</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>die</t>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>selfish</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>empty</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -109,9 +121,6 @@
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -121,60 +130,63 @@
     <t>buying</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>from</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>with</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
   <si>
     <t>are</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>the</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>in</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
@@ -184,156 +196,153 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>ready</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>shop</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>shop</t>
+    <t>your</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>you</t>
   </si>
   <si>
@@ -346,22 +355,22 @@
     <t>we</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>it</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>'</t>
   </si>
 </sst>
 </file>
@@ -727,10 +736,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +797,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -806,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -830,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -838,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.839041095890411</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C4">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -856,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -880,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,7 +897,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -906,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -938,13 +947,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -956,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -988,13 +997,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1006,31 +1015,31 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1038,13 +1047,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1059,16 +1068,16 @@
         <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1080,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -1106,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.8636363636363636</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1147,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1156,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.8490566037735849</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L10">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1180,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1188,13 +1197,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6756756756756757</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1206,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.8459530026109661</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="L11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1230,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1238,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.675</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.8448275862068966</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1280,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1288,13 +1297,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6274509803921569</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1306,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.828125</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L13">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M13">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1330,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1338,13 +1347,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6137566137566137</v>
+        <v>0.5968992248062015</v>
       </c>
       <c r="C14">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="D14">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1356,19 +1365,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.825</v>
+        <v>0.79375</v>
       </c>
       <c r="L14">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M14">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1388,13 +1397,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6101694915254238</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.8181818181818182</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1430,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1438,13 +1447,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.575</v>
       </c>
       <c r="C16">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>301</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1456,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.8170731707317073</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M16">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1480,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1488,13 +1497,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5503355704697986</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1506,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.8028169014084507</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1530,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1538,13 +1547,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4533333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1556,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.7948717948717948</v>
+        <v>0.7890625</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1580,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1588,13 +1597,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.45</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="C19">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="D19">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1606,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.7906976744186046</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1630,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1638,13 +1647,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4464285714285715</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1656,19 +1665,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.7659574468085106</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1680,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1688,13 +1697,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4181818181818182</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1706,19 +1715,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.746031746031746</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L21">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1730,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1738,13 +1747,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1756,19 +1765,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>205</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22">
+        <v>0.7674418604651163</v>
+      </c>
+      <c r="L22">
         <v>33</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L22">
-        <v>26</v>
-      </c>
       <c r="M22">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1788,13 +1797,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3444444444444444</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1806,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1830,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1838,13 +1847,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3293650793650794</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1856,19 +1865,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1880,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1888,13 +1897,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1906,19 +1915,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1938,13 +1947,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2727272727272727</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1956,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>0.7</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1980,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1988,13 +1997,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2493297587131367</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C27">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2006,19 +2015,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>0.6857142857142857</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2030,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2038,13 +2047,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1566666666666667</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2056,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.6617647058823529</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2080,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2088,37 +2097,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.09246575342465753</v>
+        <v>0.275</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2130,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2138,31 +2147,31 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04235090751944685</v>
+        <v>0.2305630026809651</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D30">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1108</v>
+        <v>287</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>0.6470588235294118</v>
+        <v>0.66</v>
       </c>
       <c r="L30">
         <v>33</v>
@@ -2180,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2188,37 +2197,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03739837398373984</v>
+        <v>0.1566666666666667</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E31">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.6599999999999999</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>592</v>
+        <v>253</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>0.6394557823129252</v>
+        <v>0.6484641638225256</v>
       </c>
       <c r="L31">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M31">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N31">
         <v>0.99</v>
@@ -2230,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2238,37 +2247,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03268608414239482</v>
+        <v>0.08561643835616438</v>
       </c>
       <c r="C32">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E32">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="F32">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2989</v>
+        <v>267</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>0.6153846153846154</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2280,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2288,37 +2297,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03240740740740741</v>
+        <v>0.03664072632944228</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="D33">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="E33">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="F33">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>836</v>
+        <v>2971</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.606694560669456</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L33">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2330,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2338,37 +2347,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02931442080378251</v>
+        <v>0.03555941023417172</v>
       </c>
       <c r="C34">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D34">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>0.16</v>
+      </c>
+      <c r="F34">
+        <v>0.84</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1112</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E34">
-        <v>0.31</v>
-      </c>
-      <c r="F34">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>2053</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="K34">
-        <v>0.5957446808510638</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L34">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2380,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2388,49 +2397,49 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.02891156462585034</v>
+        <v>0.03267045454545454</v>
       </c>
       <c r="C35">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E35">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="F35">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2284</v>
+        <v>681</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.5842696629213483</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L35">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="M35">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2438,37 +2447,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02710413694721826</v>
+        <v>0.03074433656957929</v>
       </c>
       <c r="C36">
         <v>19</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E36">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="F36">
-        <v>0.73</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>682</v>
+        <v>599</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>0.5600000000000001</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2480,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2488,49 +2497,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0246031746031746</v>
+        <v>0.0264367816091954</v>
       </c>
       <c r="C37">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>0.34</v>
+      </c>
+      <c r="F37">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>847</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37">
+        <v>0.5571428571428572</v>
+      </c>
+      <c r="L37">
+        <v>39</v>
+      </c>
+      <c r="M37">
+        <v>39</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>31</v>
-      </c>
-      <c r="D37">
-        <v>60</v>
-      </c>
-      <c r="E37">
-        <v>0.48</v>
-      </c>
-      <c r="F37">
-        <v>0.52</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1229</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K37">
-        <v>0.5</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2538,37 +2547,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02123893805309734</v>
+        <v>0.02598016060462919</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="E38">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="F38">
-        <v>0.71</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1106</v>
+        <v>2062</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K38">
-        <v>0.4888888888888889</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2580,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2588,37 +2597,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01888449714536671</v>
+        <v>0.02561117578579744</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E39">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="F39">
-        <v>0.5700000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2234</v>
+        <v>837</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K39">
-        <v>0.4246575342465753</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L39">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2630,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2638,37 +2647,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01733632469916378</v>
+        <v>0.02514919011082694</v>
       </c>
       <c r="C40">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="E40">
-        <v>0.52</v>
+        <v>0.36</v>
       </c>
       <c r="F40">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>4818</v>
+        <v>2287</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K40">
-        <v>0.390625</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2680,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2688,37 +2697,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01706231454005935</v>
+        <v>0.01802197802197802</v>
       </c>
       <c r="C41">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D41">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E41">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="F41">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1325</v>
+        <v>2234</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K41">
-        <v>0.3717948717948718</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2730,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2738,49 +2747,49 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01560647965231134</v>
+        <v>0.017825311942959</v>
       </c>
       <c r="C42">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="E42">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="F42">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>4983</v>
+        <v>1102</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K42">
-        <v>0.3620689655172414</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M42">
         <v>22</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2788,37 +2797,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01552664708350818</v>
+        <v>0.0178173719376392</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>0.4</v>
+      </c>
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1323</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E43">
-        <v>0.63</v>
-      </c>
-      <c r="F43">
-        <v>0.37</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>2346</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="K43">
-        <v>0.3508771929824561</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M43">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2830,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2838,37 +2847,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01552393272962484</v>
+        <v>0.01765650080256822</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E44">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F44">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1522</v>
+        <v>1224</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>0.3442622950819672</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L44">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2880,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2888,49 +2897,49 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.01241272304111714</v>
+        <v>0.01573564122738002</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D45">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="E45">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2546</v>
+        <v>5004</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K45">
-        <v>0.1962616822429906</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N45">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O45">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2938,37 +2947,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01220943883540737</v>
+        <v>0.01385301714017375</v>
       </c>
       <c r="C46">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D46">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E46">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="F46">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>4207</v>
+        <v>4200</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K46">
-        <v>0.1774193548387097</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2980,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>102</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2988,31 +2997,31 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.01179801793298726</v>
+        <v>0.01309061157700961</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E47">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="F47">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2094</v>
+        <v>4825</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K47">
-        <v>0.1338028169014084</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="L47">
         <v>19</v>
@@ -3030,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3038,63 +3047,87 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01134154244977317</v>
+        <v>0.01220295439948619</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>150</v>
+        <v>56</v>
       </c>
       <c r="E48">
+        <v>0.66</v>
+      </c>
+      <c r="F48">
+        <v>0.34</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1538</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K48">
+        <v>0.08608058608058608</v>
+      </c>
+      <c r="L48">
+        <v>47</v>
+      </c>
+      <c r="M48">
+        <v>48</v>
+      </c>
+      <c r="N48">
+        <v>0.98</v>
+      </c>
+      <c r="O48">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.01206695212144803</v>
+      </c>
+      <c r="C49">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>135</v>
+      </c>
+      <c r="E49">
         <v>0.77</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>0.23</v>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>3051</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K48">
-        <v>0.1304347826086956</v>
-      </c>
-      <c r="L48">
-        <v>21</v>
-      </c>
-      <c r="M48">
-        <v>23</v>
-      </c>
-      <c r="N48">
-        <v>0.91</v>
-      </c>
-      <c r="O48">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2538</v>
+      </c>
       <c r="J49" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K49">
-        <v>0.125</v>
+        <v>0.08469055374592833</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M49">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>0.96</v>
@@ -3106,683 +3139,755 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.01132609721566777</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>63</v>
+      </c>
+      <c r="E50">
+        <v>0.62</v>
+      </c>
+      <c r="F50">
+        <v>0.38</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2095</v>
+      </c>
       <c r="J50" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K50">
-        <v>0.08496732026143791</v>
+        <v>0.08304498269896193</v>
       </c>
       <c r="L50">
+        <v>24</v>
+      </c>
+      <c r="M50">
+        <v>24</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.01093355761143818</v>
+      </c>
+      <c r="C51">
         <v>26</v>
       </c>
-      <c r="M50">
+      <c r="D51">
+        <v>93</v>
+      </c>
+      <c r="E51">
+        <v>0.72</v>
+      </c>
+      <c r="F51">
+        <v>0.28</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2352</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K51">
+        <v>0.07932692307692307</v>
+      </c>
+      <c r="L51">
+        <v>33</v>
+      </c>
+      <c r="M51">
+        <v>33</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.009011908593498551</v>
+      </c>
+      <c r="C52">
         <v>28</v>
       </c>
-      <c r="N50">
+      <c r="D52">
+        <v>122</v>
+      </c>
+      <c r="E52">
+        <v>0.77</v>
+      </c>
+      <c r="F52">
+        <v>0.23</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3079</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K52">
+        <v>0.07492795389048991</v>
+      </c>
+      <c r="L52">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <v>28</v>
+      </c>
+      <c r="N52">
         <v>0.93</v>
       </c>
-      <c r="O50">
+      <c r="O52">
         <v>0.06999999999999995</v>
       </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K51">
-        <v>0.08045977011494253</v>
-      </c>
-      <c r="L51">
-        <v>28</v>
-      </c>
-      <c r="M51">
-        <v>29</v>
-      </c>
-      <c r="N51">
-        <v>0.97</v>
-      </c>
-      <c r="O51">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="J53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K53">
+        <v>0.07023411371237458</v>
+      </c>
+      <c r="L53">
+        <v>84</v>
+      </c>
+      <c r="M53">
+        <v>88</v>
+      </c>
+      <c r="N53">
+        <v>0.95</v>
+      </c>
+      <c r="O53">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="J54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K54">
+        <v>0.06053268765133172</v>
+      </c>
+      <c r="L54">
+        <v>25</v>
+      </c>
+      <c r="M54">
+        <v>30</v>
+      </c>
+      <c r="N54">
+        <v>0.83</v>
+      </c>
+      <c r="O54">
+        <v>0.17</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K55">
+        <v>0.04187946884576098</v>
+      </c>
+      <c r="L55">
+        <v>41</v>
+      </c>
+      <c r="M55">
+        <v>51</v>
+      </c>
+      <c r="N55">
+        <v>0.8</v>
+      </c>
+      <c r="O55">
+        <v>0.2</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K56">
+        <v>0.04145936981757877</v>
+      </c>
+      <c r="L56">
+        <v>25</v>
+      </c>
+      <c r="M56">
+        <v>27</v>
+      </c>
+      <c r="N56">
+        <v>0.93</v>
+      </c>
+      <c r="O56">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K57">
+        <v>0.03936411809235428</v>
+      </c>
+      <c r="L57">
         <v>104</v>
       </c>
-      <c r="K52">
-        <v>0.07951807228915662</v>
-      </c>
-      <c r="L52">
-        <v>33</v>
-      </c>
-      <c r="M52">
-        <v>34</v>
-      </c>
-      <c r="N52">
-        <v>0.97</v>
-      </c>
-      <c r="O52">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K53">
-        <v>0.0695970695970696</v>
-      </c>
-      <c r="L53">
-        <v>38</v>
-      </c>
-      <c r="M53">
-        <v>39</v>
-      </c>
-      <c r="N53">
-        <v>0.97</v>
-      </c>
-      <c r="O53">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54">
-        <v>0.0678391959798995</v>
-      </c>
-      <c r="L54">
-        <v>81</v>
-      </c>
-      <c r="M54">
-        <v>87</v>
-      </c>
-      <c r="N54">
-        <v>0.93</v>
-      </c>
-      <c r="O54">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K55">
-        <v>0.06779661016949153</v>
-      </c>
-      <c r="L55">
-        <v>28</v>
-      </c>
-      <c r="M55">
-        <v>33</v>
-      </c>
-      <c r="N55">
-        <v>0.85</v>
-      </c>
-      <c r="O55">
-        <v>0.15</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56">
-        <v>0.03979591836734694</v>
-      </c>
-      <c r="L56">
-        <v>39</v>
-      </c>
-      <c r="M56">
-        <v>48</v>
-      </c>
-      <c r="N56">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O56">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K57">
-        <v>0.03826955074875208</v>
-      </c>
-      <c r="L57">
-        <v>23</v>
-      </c>
       <c r="M57">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="N57">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="O57">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="K58">
-        <v>0.03632343651295009</v>
+        <v>0.03525046382189239</v>
       </c>
       <c r="L58">
+        <v>19</v>
+      </c>
+      <c r="M58">
+        <v>24</v>
+      </c>
+      <c r="N58">
+        <v>0.79</v>
+      </c>
+      <c r="O58">
+        <v>0.21</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59">
+        <v>0.03393843725335438</v>
+      </c>
+      <c r="L59">
+        <v>43</v>
+      </c>
+      <c r="M59">
+        <v>65</v>
+      </c>
+      <c r="N59">
+        <v>0.66</v>
+      </c>
+      <c r="O59">
+        <v>0.34</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60">
+        <v>0.02962496060510558</v>
+      </c>
+      <c r="L60">
+        <v>94</v>
+      </c>
+      <c r="M60">
+        <v>122</v>
+      </c>
+      <c r="N60">
+        <v>0.77</v>
+      </c>
+      <c r="O60">
+        <v>0.23</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K61">
+        <v>0.02893081761006289</v>
+      </c>
+      <c r="L61">
+        <v>69</v>
+      </c>
+      <c r="M61">
+        <v>78</v>
+      </c>
+      <c r="N61">
+        <v>0.88</v>
+      </c>
+      <c r="O61">
+        <v>0.12</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K62">
+        <v>0.02769739561802398</v>
+      </c>
+      <c r="L62">
+        <v>67</v>
+      </c>
+      <c r="M62">
+        <v>93</v>
+      </c>
+      <c r="N62">
+        <v>0.72</v>
+      </c>
+      <c r="O62">
+        <v>0.28</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M58">
-        <v>150</v>
-      </c>
-      <c r="N58">
-        <v>0.77</v>
-      </c>
-      <c r="O58">
-        <v>0.23</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59">
-        <v>0.03597122302158273</v>
-      </c>
-      <c r="L59">
-        <v>95</v>
-      </c>
-      <c r="M59">
-        <v>127</v>
-      </c>
-      <c r="N59">
-        <v>0.75</v>
-      </c>
-      <c r="O59">
-        <v>0.25</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K60">
-        <v>0.03441040704993705</v>
-      </c>
-      <c r="L60">
-        <v>82</v>
-      </c>
-      <c r="M60">
-        <v>93</v>
-      </c>
-      <c r="N60">
-        <v>0.88</v>
-      </c>
-      <c r="O60">
-        <v>0.12</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K61">
-        <v>0.03057324840764331</v>
-      </c>
-      <c r="L61">
-        <v>48</v>
-      </c>
-      <c r="M61">
-        <v>72</v>
-      </c>
-      <c r="N61">
-        <v>0.67</v>
-      </c>
-      <c r="O61">
-        <v>0.33</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K62">
-        <v>0.03026481715006305</v>
-      </c>
-      <c r="L62">
-        <v>24</v>
-      </c>
-      <c r="M62">
-        <v>32</v>
-      </c>
-      <c r="N62">
-        <v>0.75</v>
-      </c>
-      <c r="O62">
-        <v>0.25</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="K63">
-        <v>0.03013392857142857</v>
+        <v>0.02603664416586307</v>
       </c>
       <c r="L63">
         <v>27</v>
       </c>
       <c r="M63">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N63">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="O63">
-        <v>0.16</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K64">
-        <v>0.02606177606177606</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="L64">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N64">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="O64">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1009</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K65">
-        <v>0.02574750830564784</v>
+        <v>0.02349206349206349</v>
       </c>
       <c r="L65">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M65">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="N65">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="O65">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>2346</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K66">
-        <v>0.02537485582468281</v>
+        <v>0.02341137123745819</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N66">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="O66">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>845</v>
+        <v>876</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K67">
-        <v>0.02305246422893482</v>
+        <v>0.02169505271695053</v>
       </c>
       <c r="L67">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M67">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="N67">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="O67">
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1229</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K68">
-        <v>0.02249718785151856</v>
+        <v>0.02119071644803229</v>
       </c>
       <c r="L68">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N68">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="O68">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>869</v>
+        <v>970</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K69">
-        <v>0.02025167125442391</v>
+        <v>0.01827553889409559</v>
       </c>
       <c r="L69">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="M69">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="N69">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="O69">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4983</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K70">
-        <v>0.01893708002443494</v>
+        <v>0.01616303583977512</v>
       </c>
       <c r="L70">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="M70">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="N70">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="O70">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>4818</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>0.01828410689170183</v>
+        <v>0.01592920353982301</v>
       </c>
       <c r="L71">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="M71">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="N71">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="O71">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2094</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>0.01613657623947615</v>
+        <v>0.01499118165784832</v>
       </c>
       <c r="L72">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="N72">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
       <c r="O72">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>4207</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>0.01412180052956752</v>
+        <v>0.01422413793103448</v>
       </c>
       <c r="L73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M73">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="N73">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="O73">
-        <v>0.5700000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>2234</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>0.0134550696780394</v>
+        <v>0.01245210727969349</v>
       </c>
       <c r="L74">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M74">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="N74">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="O74">
-        <v>0.6899999999999999</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2053</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K75">
-        <v>0.01168325400259628</v>
+        <v>0.007682030728122912</v>
       </c>
       <c r="L75">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="N75">
-        <v>0.28</v>
+        <v>0.17</v>
       </c>
       <c r="O75">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2284</v>
+        <v>2971</v>
       </c>
     </row>
   </sheetData>
